--- a/data/trans_dic/P14B23-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P14B23-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02833732963585879</v>
+        <v>0.02736772357265421</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0262006282549745</v>
+        <v>0.02629343837232113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0757517936814448</v>
+        <v>0.07398331356397857</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1185926513033395</v>
+        <v>0.1181980751676127</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09246948082672461</v>
+        <v>0.09257262942167367</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1240006863068021</v>
+        <v>0.125550090518763</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07831954820617866</v>
+        <v>0.07993665765929917</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0648531365247481</v>
+        <v>0.06478506926114416</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1100234373358002</v>
+        <v>0.1092792737575419</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05626355726306505</v>
+        <v>0.05412662220837969</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04857001920223949</v>
+        <v>0.04880038120625184</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1312290162463267</v>
+        <v>0.1310753066178467</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1606777823038935</v>
+        <v>0.1592761478497947</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1290745500333948</v>
+        <v>0.1294391804218899</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1736154781828084</v>
+        <v>0.1714411721182742</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1038389623130669</v>
+        <v>0.1041762427091275</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08671259723013892</v>
+        <v>0.08778483005805023</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1451765298921038</v>
+        <v>0.1452640936365606</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.03299958773168935</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.05682298377275318</v>
+        <v>0.05682298377275317</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01286865026960267</v>
+        <v>0.01325624098172139</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008794420974240214</v>
+        <v>0.008417143407219262</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02061911566591105</v>
+        <v>0.0196892527394292</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04516658854107872</v>
+        <v>0.04498917860621524</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03671753426065334</v>
+        <v>0.03743227454661814</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06856874473366646</v>
+        <v>0.06754279693510282</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03241970594691239</v>
+        <v>0.03283802568466237</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02555019818754828</v>
+        <v>0.02584578368937328</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04858340212925437</v>
+        <v>0.04847518629220228</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03230013519222174</v>
+        <v>0.03198953274644001</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02491078796907447</v>
+        <v>0.02433646921158076</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.041780784748018</v>
+        <v>0.04169982447766538</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07301138211909437</v>
+        <v>0.07342818516898872</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06389704472500114</v>
+        <v>0.06482605018587598</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09708814062076139</v>
+        <v>0.09521667064406342</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.049931755473214</v>
+        <v>0.05015821451834052</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04155768304803005</v>
+        <v>0.04171998677081848</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06670744230019869</v>
+        <v>0.06633098632724986</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.03966638111961325</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.06554395825405887</v>
+        <v>0.06554395825405888</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.03627792918434204</v>
@@ -882,7 +882,7 @@
         <v>0.02472852048184708</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.04326745347615118</v>
+        <v>0.04326745347615119</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01234670719794186</v>
+        <v>0.01166660586167789</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005100745605289763</v>
+        <v>0.004899990508935653</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01382269658928289</v>
+        <v>0.01372058086538356</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03859481211674706</v>
+        <v>0.03880859630451149</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02621858015516305</v>
+        <v>0.02619841004498319</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05241265034311317</v>
+        <v>0.05202352170204622</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02821210200857137</v>
+        <v>0.02769931632445857</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01735228254706924</v>
+        <v>0.01727993368840863</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03591395303830974</v>
+        <v>0.03560850331594605</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03367534267586716</v>
+        <v>0.03435518673059085</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01972393793682325</v>
+        <v>0.02007295164325132</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03146349401967485</v>
+        <v>0.03140481187954228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06883051530685536</v>
+        <v>0.07053625193686042</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05649083536781752</v>
+        <v>0.05632236131854042</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07966689916268137</v>
+        <v>0.07929054087376186</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04717074827281293</v>
+        <v>0.04681316876141797</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03392366696066464</v>
+        <v>0.03324219022034319</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05137428846586582</v>
+        <v>0.05180803698187116</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.004072661571091699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02806343774989377</v>
+        <v>0.02806343774989376</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.03925895252569436</v>
@@ -982,7 +982,7 @@
         <v>0.03144093179632974</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.05037846163538599</v>
+        <v>0.050378461635386</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.02308667626215935</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002291264911678597</v>
+        <v>0.002019701391708688</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01802838257648415</v>
+        <v>0.01903497771952416</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02343310828847338</v>
+        <v>0.02295039691602523</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01764500669018977</v>
+        <v>0.01889877991099638</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04030185733817396</v>
+        <v>0.03993876051937247</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01423936809794482</v>
+        <v>0.01438466812711064</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01050941349011003</v>
+        <v>0.01031249583466725</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03155269740386367</v>
+        <v>0.03119441796310396</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02300426218106332</v>
+        <v>0.02027998828140843</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01552304772660628</v>
+        <v>0.01445085838414358</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04380515486965955</v>
+        <v>0.04330705847777256</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06186627095801279</v>
+        <v>0.06068759219612676</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05200627035727011</v>
+        <v>0.05288308273723198</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06534152135400643</v>
+        <v>0.06385808537726879</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03385068413253665</v>
+        <v>0.0334720836393051</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02779771626038965</v>
+        <v>0.02827921743295768</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04957506991635489</v>
+        <v>0.04815575422461694</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01980142844809937</v>
+        <v>0.01930287646998169</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01543279550105287</v>
+        <v>0.01485541993167354</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03078013859738308</v>
+        <v>0.03021984601739581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07068386912677475</v>
+        <v>0.07092708791231801</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0583336708813221</v>
+        <v>0.05778239844684078</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07228989740060625</v>
+        <v>0.07315311702098697</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04786075108325884</v>
+        <v>0.04743378272365169</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03903200891004621</v>
+        <v>0.03832897954751042</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05414862673481163</v>
+        <v>0.05359641966871268</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03130017603712672</v>
+        <v>0.03094437040615985</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02470293067074606</v>
+        <v>0.02439403451366984</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04389405587367691</v>
+        <v>0.043689188267605</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08854987105020228</v>
+        <v>0.08993579793014977</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07585499132888343</v>
+        <v>0.07551458317205602</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08830131647773694</v>
+        <v>0.08785091002290536</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05882767715614751</v>
+        <v>0.05803265941004265</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04880043720935378</v>
+        <v>0.04813235327462726</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06457796262563072</v>
+        <v>0.0640587000883279</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>29582</v>
+        <v>28570</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29554</v>
+        <v>29659</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>37780</v>
+        <v>36898</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>132071</v>
+        <v>131631</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>116471</v>
+        <v>116601</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>77324</v>
+        <v>78291</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>168981</v>
+        <v>172470</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>154841</v>
+        <v>154678</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>123482</v>
+        <v>122646</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>58735</v>
+        <v>56505</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>54787</v>
+        <v>55047</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>65449</v>
+        <v>65372</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>178939</v>
+        <v>177378</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>162577</v>
+        <v>163037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>108263</v>
+        <v>106907</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>224041</v>
+        <v>224769</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>207031</v>
+        <v>209591</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>162935</v>
+        <v>163033</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12559</v>
+        <v>12938</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7993</v>
+        <v>7650</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>19797</v>
+        <v>18904</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>49244</v>
+        <v>49051</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>36955</v>
+        <v>37675</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>76512</v>
+        <v>75368</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>66988</v>
+        <v>67852</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>48936</v>
+        <v>49502</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>100858</v>
+        <v>100634</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31524</v>
+        <v>31221</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>22640</v>
+        <v>22118</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40115</v>
+        <v>40038</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>79603</v>
+        <v>80058</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>64311</v>
+        <v>65246</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>108336</v>
+        <v>106247</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>103172</v>
+        <v>103640</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>79595</v>
+        <v>79906</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>138484</v>
+        <v>137702</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10928</v>
+        <v>10326</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4202</v>
+        <v>4036</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14465</v>
+        <v>14358</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>33759</v>
+        <v>33946</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>20216</v>
+        <v>20201</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>54910</v>
+        <v>54502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>49648</v>
+        <v>48746</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27674</v>
+        <v>27558</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>75208</v>
+        <v>74569</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29807</v>
+        <v>30408</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16248</v>
+        <v>16535</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>32926</v>
+        <v>32864</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60206</v>
+        <v>61698</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>43558</v>
+        <v>43428</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>83462</v>
+        <v>83068</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>83012</v>
+        <v>82383</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>54102</v>
+        <v>53015</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>107584</v>
+        <v>108492</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1150</v>
+        <v>1014</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17594</v>
+        <v>18577</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10609</v>
+        <v>10390</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8641</v>
+        <v>9255</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>36689</v>
+        <v>36358</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13594</v>
+        <v>13733</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10472</v>
+        <v>10275</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>59517</v>
+        <v>58841</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11547</v>
+        <v>10180</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7866</v>
+        <v>7322</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42751</v>
+        <v>42265</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28009</v>
+        <v>27475</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>25467</v>
+        <v>25897</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>59483</v>
+        <v>58133</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>32317</v>
+        <v>31956</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27698</v>
+        <v>28177</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>93512</v>
+        <v>90835</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>67463</v>
+        <v>65765</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>51967</v>
+        <v>50022</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>107154</v>
+        <v>105204</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>249611</v>
+        <v>250470</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>205731</v>
+        <v>203787</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>267286</v>
+        <v>270478</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>332076</v>
+        <v>329113</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>269090</v>
+        <v>264243</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>388717</v>
+        <v>384753</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>106640</v>
+        <v>105427</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>83182</v>
+        <v>82142</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>152808</v>
+        <v>152094</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>312703</v>
+        <v>317597</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>267525</v>
+        <v>266324</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>326487</v>
+        <v>324821</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>408168</v>
+        <v>402652</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>336434</v>
+        <v>331828</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>463586</v>
+        <v>459858</v>
       </c>
     </row>
     <row r="24">
